--- a/SupplementaryDataset1.xlsx
+++ b/SupplementaryDataset1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleesonm/Library/CloudStorage/GoogleDrive-matthew.gleeson.geo@gmail.com/My Drive/!!!Berkeley/2024/GalapagosGabbros/Final/ToSubmit/GleesonEtAl_JPet_2024_supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63DFBE3-944F-834D-9830-7FFA73C6580D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602D4AF1-E320-4941-A133-E2C9BB9BE80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="28680" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36380" yWindow="4560" windowWidth="28680" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Standards" sheetId="3" r:id="rId1"/>
@@ -515,13 +515,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1041,34 +1040,34 @@
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>99.518900000000002</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>99.518900000000002</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>30.737200000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>13.388299999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>0.41099999999999998</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>0.1188</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>0.12529999999999999</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>3.7601</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>50.978200000000001</v>
       </c>
     </row>
@@ -1076,34 +1075,34 @@
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>99.590500000000006</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>99.590500000000006</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>30.6676</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>13.3797</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>0.3881</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>0.1217</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>0.1176</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>3.7839999999999998</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>51.131900000000002</v>
       </c>
     </row>
@@ -1111,34 +1110,34 @@
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>99.471800000000002</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>99.471800000000002</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>30.746400000000001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>13.344200000000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>0.4027</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>0.1197</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>0.12429999999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>3.7581000000000002</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>50.976300000000002</v>
       </c>
     </row>
@@ -1146,76 +1145,64 @@
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>99.454599999999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>99.454599999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>30.702500000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>13.3931</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>0.38940000000000002</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>0.1176</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <v>0.1234</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>3.7557</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>50.972900000000003</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>30.713425000000001</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>13.376325000000001</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>0.39779999999999999</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>0.11944999999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <v>0.12265</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>3.764475</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>51.014825000000002</v>
       </c>
     </row>
@@ -1223,28 +1210,25 @@
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>0.11696946090741621</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>0.16538506170497844</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>2.7648277385925542</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>1.4476028853738474</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>2.8169165449645757</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>0.34906232670875709</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>0.15305508968331588</v>
       </c>
     </row>
@@ -1252,85 +1236,62 @@
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
+      <c r="E16">
         <v>99.364040763506964</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>99.8233208955224</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
         <v>97.024390243902445</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>99.541666666666657</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <v>88.237410071942435</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16">
         <v>98.289164490861609</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>99.535295494897866</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>100.0688</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>100.0688</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>35.7502</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>18.823799999999999</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19">
         <v>0.44479999999999997</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5">
+      <c r="J19">
         <v>0.67279999999999995</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>44.377099999999999</v>
       </c>
     </row>
@@ -1338,30 +1299,28 @@
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>99.999799999999993</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20">
         <v>99.999799999999993</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
         <v>35.758800000000001</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>18.9192</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20">
         <v>0.46510000000000001</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5">
+      <c r="J20">
         <v>0.67949999999999999</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>44.177100000000003</v>
       </c>
     </row>
@@ -1369,72 +1328,58 @@
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>99.866</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>99.866</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>35.726199999999999</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>18.889299999999999</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>0.46129999999999999</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5">
+      <c r="J21">
         <v>0.63880000000000003</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>44.150399999999998</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>35.745066666666666</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>18.877433333333332</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23">
         <v>0.45706666666666668</v>
       </c>
-      <c r="H23" s="5" t="e">
+      <c r="H23" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="5" t="e">
+      <c r="I23" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23">
         <v>0.66370000000000007</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>44.234866666666669</v>
       </c>
     </row>
@@ -1442,28 +1387,25 @@
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5">
+      <c r="E24">
         <v>4.7266282682506988E-2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>0.25848058999705853</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24">
         <v>2.3611036803365786</v>
       </c>
-      <c r="H24" s="5" t="e">
+      <c r="H24" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="5" t="e">
+      <c r="I24" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24">
         <v>3.2880359513414454</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>0.28009354137591647</v>
       </c>
     </row>
@@ -1471,85 +1413,62 @@
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5">
+      <c r="E25">
         <v>102.26901655603876</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>101.32814456969047</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25">
         <v>78.804597701149433</v>
       </c>
-      <c r="H25" s="5" t="e">
+      <c r="H25" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="5" t="e">
+      <c r="I25" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25">
         <v>84.012658227848107</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>100.14458958743671</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28">
         <v>100.61020000000001</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28">
         <v>100.61020000000001</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28">
         <v>33.927199999999999</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5">
+      <c r="G28">
         <v>0.26729999999999998</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28">
         <v>5.7649999999999997</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5">
+      <c r="J28">
         <v>16.840599999999998</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>43.810099999999998</v>
       </c>
     </row>
@@ -1557,30 +1476,28 @@
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>100.6341</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>100.6341</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29">
         <v>34.000700000000002</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5">
+      <c r="G29">
         <v>0.2487</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29">
         <v>5.7742000000000004</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5">
+      <c r="J29">
         <v>16.7926</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>43.817799999999998</v>
       </c>
     </row>
@@ -1588,72 +1505,58 @@
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>100.72920000000001</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30">
         <v>100.72920000000001</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30">
         <v>33.974699999999999</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
+      <c r="G30">
         <v>0.26290000000000002</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30">
         <v>5.7876000000000003</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5">
+      <c r="J30">
         <v>16.844000000000001</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>43.859900000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5">
+      <c r="E32">
         <v>33.967533333333328</v>
       </c>
-      <c r="F32" s="5" t="e">
+      <c r="F32" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32">
         <v>0.25963333333333333</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32">
         <v>5.7756000000000007</v>
       </c>
-      <c r="I32" s="5" t="e">
+      <c r="I32" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32">
         <v>16.825733333333336</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>43.829266666666662</v>
       </c>
     </row>
@@ -1661,28 +1564,25 @@
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5">
+      <c r="E33">
         <v>0.10972362318431046</v>
       </c>
-      <c r="F33" s="5" t="e">
+      <c r="F33" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33">
         <v>3.7440370311583395</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33">
         <v>0.19677363591904873</v>
       </c>
-      <c r="I33" s="5" t="e">
+      <c r="I33" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33">
         <v>0.17083726525358309</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>6.1162672401488725E-2</v>
       </c>
     </row>
@@ -1690,85 +1590,62 @@
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5">
+      <c r="E34">
         <v>100.6117512316973</v>
       </c>
-      <c r="F34" s="5" t="e">
+      <c r="F34" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34">
         <v>130.46901172529311</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34">
         <v>102.95187165775401</v>
       </c>
-      <c r="I34" s="5" t="e">
+      <c r="I34" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34">
         <v>99.442868400315206</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>100.77778544219876</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37">
         <v>101.1023</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37">
         <v>101.1023</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37">
         <v>19.849299999999999</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5">
+      <c r="H37">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5">
+      <c r="J37">
         <v>12.082599999999999</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>69.146699999999996</v>
       </c>
     </row>
@@ -1776,30 +1653,28 @@
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38">
         <v>100.965</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38">
         <v>100.965</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38">
         <v>19.774799999999999</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5">
+      <c r="H38">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5">
+      <c r="J38">
         <v>11.982100000000001</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>69.200599999999994</v>
       </c>
     </row>
@@ -1807,72 +1682,58 @@
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>100.8907</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39">
         <v>100.8907</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39">
         <v>19.686</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5">
+      <c r="H39">
         <v>1.23E-2</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5">
+      <c r="J39">
         <v>11.9894</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>69.160700000000006</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
+      <c r="E41">
         <v>19.770033333333334</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>2.2633333333333335E-2</v>
       </c>
-      <c r="G41" s="5" t="e">
+      <c r="G41" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41">
         <v>5.933333333333333E-3</v>
       </c>
-      <c r="I41" s="5" t="e">
+      <c r="I41" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41">
         <v>12.018033333333335</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>69.169333333333327</v>
       </c>
     </row>
@@ -1880,28 +1741,25 @@
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5">
+      <c r="E42">
         <v>0.41352629483022957</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>75.934147663453672</v>
       </c>
-      <c r="G42" s="5" t="e">
+      <c r="G42" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42">
         <v>134.26496160261715</v>
       </c>
-      <c r="I42" s="5" t="e">
+      <c r="I42" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42">
         <v>0.46626077809044314</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>4.0433956663592951E-2</v>
       </c>
     </row>
@@ -1909,85 +1767,62 @@
       <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
+      <c r="E43">
         <v>99.346901172529314</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <v>78.045977011494259</v>
       </c>
-      <c r="G43" s="5" t="e">
+      <c r="G43" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43">
         <v>14.833333333333332</v>
       </c>
-      <c r="I43" s="5" t="e">
+      <c r="I43" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43">
         <v>100.65354550530432</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>101.36037475027231</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46">
         <v>100.5355</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46">
         <v>100.5355</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46">
         <v>16.565000000000001</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5">
+      <c r="G46">
         <v>1.7941</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46">
         <v>15.554500000000001</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5">
+      <c r="J46">
         <v>0.99819999999999998</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>65.623800000000003</v>
       </c>
     </row>
@@ -1995,30 +1830,28 @@
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47">
         <v>100.3845</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47">
         <v>100.3845</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47">
         <v>16.544499999999999</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5">
+      <c r="G47">
         <v>1.7299</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47">
         <v>15.5418</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5">
+      <c r="J47">
         <v>0.95189999999999997</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>65.616399999999999</v>
       </c>
     </row>
@@ -2026,72 +1859,58 @@
       <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48">
         <v>100.3163</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48">
         <v>100.3163</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48">
         <v>16.499300000000002</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5">
+      <c r="G48">
         <v>1.7909999999999999</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48">
         <v>15.5062</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5">
+      <c r="J48">
         <v>0.93889999999999996</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>65.580799999999996</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="6"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5">
+      <c r="E50">
         <v>16.536266666666666</v>
       </c>
-      <c r="F50" s="5" t="e">
+      <c r="F50" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50">
         <v>1.7716666666666665</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50">
         <v>15.534166666666666</v>
       </c>
-      <c r="I50" s="5" t="e">
+      <c r="I50" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50">
         <v>0.96299999999999997</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>65.607000000000014</v>
       </c>
     </row>
@@ -2099,57 +1918,54 @@
       <c r="A51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5">
+      <c r="E51">
         <v>0.20328002636474363</v>
       </c>
-      <c r="F51" s="5" t="e">
+      <c r="F51" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51">
         <v>2.0435102226435307</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51">
         <v>0.16118300811174774</v>
       </c>
-      <c r="I51" s="5" t="e">
+      <c r="I51" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51">
         <v>3.2366953267207168</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>3.5041326153095166E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7">
         <v>98.901116427432214</v>
       </c>
-      <c r="F52" s="8" t="e">
+      <c r="F52" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <v>94.237588652482273</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="7">
         <v>100.2851301915214</v>
       </c>
-      <c r="I52" s="8" t="e">
+      <c r="I52" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="7">
         <v>105.82417582417581</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="8">
         <v>101.25630855184976</v>
       </c>
     </row>
@@ -2190,34 +2006,34 @@
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57">
         <v>100.02800000000001</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57">
         <v>100.02800000000001</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57">
         <v>30.8933</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57">
         <v>13.4823</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57">
         <v>0.38379999999999997</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57">
         <v>0.1129</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57">
         <v>0.123</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57">
         <v>3.7502</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>51.282499999999999</v>
       </c>
     </row>
@@ -2225,34 +2041,34 @@
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58">
         <v>100.3092</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58">
         <v>100.3092</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58">
         <v>30.957999999999998</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58">
         <v>13.4816</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58">
         <v>0.42880000000000001</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58">
         <v>0.1158</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58">
         <v>0.1241</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58">
         <v>3.8277999999999999</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>51.373100000000001</v>
       </c>
     </row>
@@ -2260,76 +2076,64 @@
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59">
         <v>100.042</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59">
         <v>100.042</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59">
         <v>30.874400000000001</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59">
         <v>13.380699999999999</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59">
         <v>0.42499999999999999</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59">
         <v>0.1152</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59">
         <v>3.8429000000000002</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>51.285699999999999</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="6"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5">
+      <c r="E61">
         <v>30.908566666666662</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61">
         <v>13.4482</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61">
         <v>0.41253333333333336</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61">
         <v>0.11463333333333332</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61">
         <v>0.12169999999999999</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61">
         <v>3.8069666666666664</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>51.313766666666659</v>
       </c>
     </row>
@@ -2337,28 +2141,25 @@
       <c r="A62" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5">
+      <c r="E62">
         <v>0.14184130606249143</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62">
         <v>0.43468837859254045</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62">
         <v>6.049505901951064</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62">
         <v>1.3353838328822367</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62">
         <v>2.671449171242215</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62">
         <v>1.3064928042295443</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <v>0.10018574284416089</v>
       </c>
     </row>
@@ -2366,85 +2167,62 @@
       <c r="A63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5">
+      <c r="E63">
         <v>99.995362881483857</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63">
         <v>100.35970149253731</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63">
         <v>100.61788617886181</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63">
         <v>95.527777777777771</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63">
         <v>87.553956834532357</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63">
         <v>99.398607484769357</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>100.11856216546673</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="6"/>
+      <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="6"/>
+      <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66">
         <v>101.1228</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66">
         <v>101.1228</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66">
         <v>19.770600000000002</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66">
         <v>1.24E-2</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5">
+      <c r="H66">
         <v>1.77E-2</v>
       </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5">
+      <c r="J66">
         <v>12.0389</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="5">
         <v>69.283199999999994</v>
       </c>
     </row>
@@ -2452,30 +2230,28 @@
       <c r="A67" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67">
         <v>101.2047</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67">
         <v>101.2047</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67">
         <v>19.863</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5">
+      <c r="H67">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5">
+      <c r="J67">
         <v>12.000999999999999</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <v>69.308099999999996</v>
       </c>
     </row>
@@ -2483,72 +2259,58 @@
       <c r="A68" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68">
         <v>101.11539999999999</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68">
         <v>101.11539999999999</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68">
         <v>19.8996</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5">
+      <c r="H68">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5">
+      <c r="J68">
         <v>11.9781</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="5">
         <v>69.177300000000002</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="6"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5">
+      <c r="E70">
         <v>19.8444</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70">
         <v>2.4766666666666669E-2</v>
       </c>
-      <c r="G70" s="5" t="e">
+      <c r="G70" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70">
         <v>1.6266666666666665E-2</v>
       </c>
-      <c r="I70" s="5" t="e">
+      <c r="I70" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70">
         <v>12.006</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="5">
         <v>69.256199999999993</v>
       </c>
     </row>
@@ -2556,28 +2318,25 @@
       <c r="A71" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5">
+      <c r="E71">
         <v>0.33501126122278835</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71">
         <v>53.377422758139645</v>
       </c>
-      <c r="G71" s="5" t="e">
+      <c r="G71" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71">
         <v>38.569798204197291</v>
       </c>
-      <c r="I71" s="5" t="e">
+      <c r="I71" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71">
         <v>0.2557624490170074</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="5">
         <v>0.10028614551822958</v>
       </c>
     </row>
@@ -2585,85 +2344,62 @@
       <c r="A72" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5">
+      <c r="E72">
         <v>99.720603015075383</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72">
         <v>85.402298850574724</v>
       </c>
-      <c r="G72" s="5" t="e">
+      <c r="G72" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72">
         <v>40.666666666666664</v>
       </c>
-      <c r="I72" s="5" t="e">
+      <c r="I72" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72">
         <v>100.55276381909547</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="5">
         <v>101.48766870356529</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="6"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="6"/>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75">
         <v>100.7375</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75">
         <v>100.7375</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75">
         <v>33.9542</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5">
+      <c r="G75">
         <v>0.25440000000000002</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75">
         <v>5.8124000000000002</v>
       </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5">
+      <c r="J75">
         <v>16.836500000000001</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="5">
         <v>43.88</v>
       </c>
     </row>
@@ -2671,30 +2407,28 @@
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76">
         <v>100.65089999999999</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76">
         <v>100.65089999999999</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76">
         <v>33.890300000000003</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5">
+      <c r="G76">
         <v>0.24590000000000001</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76">
         <v>5.7873999999999999</v>
       </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5">
+      <c r="J76">
         <v>16.8003</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="5">
         <v>43.927</v>
       </c>
     </row>
@@ -2702,72 +2436,58 @@
       <c r="A77" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77">
         <v>100.8246</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77">
         <v>100.8246</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77">
         <v>34.048999999999999</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5">
+      <c r="G77">
         <v>0.26790000000000003</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77">
         <v>5.7332999999999998</v>
       </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5">
+      <c r="J77">
         <v>16.8185</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="5">
         <v>43.9559</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="6"/>
+      <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5">
+      <c r="E79">
         <v>33.964500000000008</v>
       </c>
-      <c r="F79" s="5" t="e">
+      <c r="F79" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79">
         <v>0.25606666666666666</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79">
         <v>5.7777000000000003</v>
       </c>
-      <c r="I79" s="5" t="e">
+      <c r="I79" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79">
         <v>16.818433333333335</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="5">
         <v>43.920966666666665</v>
       </c>
     </row>
@@ -2775,57 +2495,54 @@
       <c r="A80" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5">
+      <c r="E80">
         <v>0.2350978124016663</v>
       </c>
-      <c r="F80" s="5" t="e">
+      <c r="F80" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80">
         <v>4.3325798595789209</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80">
         <v>0.69979903901076235</v>
       </c>
-      <c r="I80" s="5" t="e">
+      <c r="I80" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80">
         <v>0.10762055966844435</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="5">
         <v>8.7220316475545401E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7">
         <v>100.60276650573148</v>
       </c>
-      <c r="F81" s="8" t="e">
+      <c r="F81" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="7">
         <v>128.67671691792293</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="7">
         <v>102.98930481283422</v>
       </c>
-      <c r="I81" s="8" t="e">
+      <c r="I81" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="7">
         <v>99.399724192277375</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K81" s="8">
         <v>100.98863366366987</v>
       </c>
     </row>
@@ -2866,34 +2583,34 @@
       <c r="A85" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85">
         <v>99.518100000000004</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85">
         <v>99.518100000000004</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85">
         <v>30.8537</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85">
         <v>13.391</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85">
         <v>0.35099999999999998</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85">
         <v>0.11749999999999999</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I85">
         <v>0.1235</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85">
         <v>3.7715999999999998</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="5">
         <v>50.909799999999997</v>
       </c>
     </row>
@@ -2901,34 +2618,34 @@
       <c r="A86" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" t="s">
         <v>48</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86">
         <v>99.941100000000006</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86">
         <v>99.941100000000006</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86">
         <v>30.820799999999998</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86">
         <v>13.447699999999999</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86">
         <v>0.4047</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86">
         <v>0.1168</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I86">
         <v>0.1237</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86">
         <v>3.7934000000000001</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="5">
         <v>51.234000000000002</v>
       </c>
     </row>
@@ -2936,34 +2653,34 @@
       <c r="A87" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87">
         <v>99.743499999999997</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87">
         <v>99.743499999999997</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87">
         <v>30.828600000000002</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87">
         <v>13.4137</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87">
         <v>0.4194</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87">
         <v>0.1187</v>
       </c>
-      <c r="I87" s="5">
+      <c r="I87">
         <v>0.1263</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87">
         <v>3.7412000000000001</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="5">
         <v>51.095500000000001</v>
       </c>
     </row>
@@ -2971,76 +2688,64 @@
       <c r="A88" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" t="s">
         <v>47</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88">
         <v>99.990899999999996</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88">
         <v>99.990899999999996</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88">
         <v>30.8142</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88">
         <v>13.395099999999999</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88">
         <v>0.44719999999999999</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88">
         <v>0.1153</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I88">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88">
         <v>3.8126000000000002</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="5">
         <v>51.2883</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="6"/>
+      <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5">
+      <c r="E90">
         <v>30.829324999999997</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90">
         <v>13.411875</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90">
         <v>0.40557500000000002</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90">
         <v>0.117075</v>
       </c>
-      <c r="I90" s="5">
+      <c r="I90">
         <v>0.122875</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90">
         <v>3.7797000000000001</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K90" s="5">
         <v>51.131900000000002</v>
       </c>
     </row>
@@ -3048,57 +2753,54 @@
       <c r="A91" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5">
+      <c r="E91">
         <v>5.6060299375004306E-2</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91">
         <v>0.1927040659431177</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91">
         <v>9.9677629919845465</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91">
         <v>1.2127272735111143</v>
       </c>
-      <c r="I91" s="5">
+      <c r="I91">
         <v>2.8413417763906041</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91">
         <v>0.81086667857190664</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="5">
         <v>0.33023938445971185</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7">
         <v>99.739000323519889</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="7">
         <v>100.08861940298507</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="7">
         <v>98.920731707317088</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H92" s="7">
         <v>97.5625</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I92" s="7">
         <v>88.399280575539564</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J92" s="7">
         <v>98.68668407310706</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K92" s="8">
         <v>99.763721148030371</v>
       </c>
     </row>
@@ -3139,34 +2841,34 @@
       <c r="A97" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97">
         <v>99.886700000000005</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97">
         <v>99.886700000000005</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97">
         <v>30.8367</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97">
         <v>13.384600000000001</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97">
         <v>0.40329999999999999</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97">
         <v>0.12889999999999999</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I97">
         <v>0.112</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97">
         <v>3.7711000000000001</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="5">
         <v>51.2502</v>
       </c>
     </row>
@@ -3174,34 +2876,34 @@
       <c r="A98" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" t="s">
         <v>65</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98">
         <v>99.9816</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98">
         <v>99.9816</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98">
         <v>30.911999999999999</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98">
         <v>13.436999999999999</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98">
         <v>0.4345</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98">
         <v>0.1162</v>
       </c>
-      <c r="I98" s="5">
+      <c r="I98">
         <v>0.1089</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98">
         <v>3.7898999999999998</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="5">
         <v>51.183100000000003</v>
       </c>
     </row>
@@ -3209,34 +2911,34 @@
       <c r="A99" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" t="s">
         <v>66</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99">
         <v>99.707599999999999</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99">
         <v>99.707599999999999</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99">
         <v>30.8474</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99">
         <v>13.397500000000001</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99">
         <v>0.435</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99">
         <v>0.12130000000000001</v>
       </c>
-      <c r="I99" s="5">
+      <c r="I99">
         <v>0.11849999999999999</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99">
         <v>3.7690999999999999</v>
       </c>
-      <c r="K99" s="6">
+      <c r="K99" s="5">
         <v>51.018799999999999</v>
       </c>
     </row>
@@ -3244,76 +2946,64 @@
       <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100">
         <v>99.822900000000004</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100">
         <v>99.822900000000004</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100">
         <v>30.9023</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100">
         <v>13.354200000000001</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100">
         <v>0.44590000000000002</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100">
         <v>0.10829999999999999</v>
       </c>
-      <c r="I100" s="5">
+      <c r="I100">
         <v>0.1145</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100">
         <v>3.7462</v>
       </c>
-      <c r="K100" s="6">
+      <c r="K100" s="5">
         <v>51.151400000000002</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="6"/>
+      <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5">
+      <c r="E102">
         <v>30.874600000000001</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102">
         <v>13.393324999999999</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102">
         <v>0.42967499999999997</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102">
         <v>0.118675</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I102">
         <v>0.11347499999999999</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102">
         <v>3.769075</v>
       </c>
-      <c r="K102" s="6">
+      <c r="K102" s="5">
         <v>51.150874999999999</v>
       </c>
     </row>
@@ -3321,57 +3011,54 @@
       <c r="A103" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5">
+      <c r="E103">
         <v>0.12322474985125008</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103">
         <v>0.25618323593401016</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103">
         <v>4.2714306076695934</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103">
         <v>7.3008185860071615</v>
       </c>
-      <c r="I103" s="5">
+      <c r="I103">
         <v>3.5763138194500201</v>
       </c>
-      <c r="J103" s="5">
+      <c r="J103">
         <v>0.47487249959779831</v>
       </c>
-      <c r="K103" s="6">
+      <c r="K103" s="5">
         <v>0.19004105016879827</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8">
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7">
         <v>99.88547395664834</v>
       </c>
-      <c r="F104" s="8">
+      <c r="F104" s="7">
         <v>99.950186567164181</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="7">
         <v>104.79878048780488</v>
       </c>
-      <c r="H104" s="8">
+      <c r="H104" s="7">
         <v>98.895833333333329</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="7">
         <v>81.636690647482013</v>
       </c>
-      <c r="J104" s="8">
+      <c r="J104" s="7">
         <v>98.409268929503909</v>
       </c>
-      <c r="K104" s="9">
+      <c r="K104" s="8">
         <v>99.800743371119736</v>
       </c>
     </row>
@@ -3385,2746 +3072,2746 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X37"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>100.31180000000001</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>100.31180000000001</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>30.840399999999999</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>12.7195</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>0.17180000000000001</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>0.16880000000000001</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>4.1506999999999996</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>52.225200000000001</v>
       </c>
-      <c r="L2" s="10">
-        <v>0</v>
-      </c>
-      <c r="M2" s="10">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0</v>
-      </c>
-      <c r="O2" s="10">
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="9">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="9">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="9">
         <v>0.11600000000000001</v>
       </c>
-      <c r="V2" s="10">
-        <v>0</v>
-      </c>
-      <c r="W2" s="10">
-        <v>0</v>
-      </c>
-      <c r="X2" s="10">
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>100.26609999999999</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>100.26609999999999</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>30.862400000000001</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>12.696</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>0.13739999999999999</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.16569999999999999</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>4.1386000000000003</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>52.233600000000003</v>
       </c>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>2.76E-2</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <v>2.8E-3</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="9">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="9">
         <v>0.11600000000000001</v>
       </c>
-      <c r="V3" s="10">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10">
-        <v>0</v>
-      </c>
-      <c r="X3" s="10">
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>100.2042</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>100.2042</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>30.818999999999999</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>12.7605</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>0.15479999999999999</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>0.16309999999999999</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>4.1325000000000003</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>52.1417</v>
       </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <v>2.76E-2</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="9">
         <v>0.04</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="9">
         <v>0.1159</v>
       </c>
-      <c r="V4" s="10">
-        <v>0</v>
-      </c>
-      <c r="W4" s="10">
-        <v>0</v>
-      </c>
-      <c r="X4" s="10">
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>99.743200000000002</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>99.743200000000002</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>30.710100000000001</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>12.7971</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>0.15920000000000001</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>0.18940000000000001</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>4.0525000000000002</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>51.8078</v>
       </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <v>2.76E-2</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
         <v>1.52E-2</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="9">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <v>0.11559999999999999</v>
       </c>
-      <c r="V5" s="10">
-        <v>0</v>
-      </c>
-      <c r="W5" s="10">
-        <v>0</v>
-      </c>
-      <c r="X5" s="10">
+      <c r="V5" s="9">
+        <v>0</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>99.775700000000001</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>99.775700000000001</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>30.721699999999998</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>12.760199999999999</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>0.16470000000000001</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>0.16289999999999999</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>4.1105</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>51.8217</v>
       </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <v>2.75E-2</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="9">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="9">
         <v>0.04</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>0.11559999999999999</v>
       </c>
-      <c r="V6" s="10">
-        <v>0</v>
-      </c>
-      <c r="W6" s="10">
-        <v>0</v>
-      </c>
-      <c r="X6" s="10">
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>99.940600000000003</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>99.940600000000003</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>30.758199999999999</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>12.8698</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>0.1719</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>4.1295999999999999</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>51.8018</v>
       </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>2.75E-2</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="9">
         <v>1.52E-2</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <v>0.04</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>0.11559999999999999</v>
       </c>
-      <c r="V7" s="10">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10">
-        <v>0</v>
-      </c>
-      <c r="X7" s="10">
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>99.891300000000001</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>99.891300000000001</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>30.790299999999998</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>12.911099999999999</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>0.1946</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>0.16919999999999999</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>4.0217999999999998</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>51.785499999999999</v>
       </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <v>4.87E-2</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>2.75E-2</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="9">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="9">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>0.1157</v>
       </c>
-      <c r="V8" s="10">
-        <v>0</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0</v>
-      </c>
-      <c r="X8" s="10">
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>100.0307</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>100.0307</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>30.884899999999998</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>12.9551</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>0.1933</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>0.17929999999999999</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>2.4E-2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>4.0490000000000004</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>51.744999999999997</v>
       </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>4.87E-2</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>2.76E-2</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="9">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>0.11559999999999999</v>
       </c>
-      <c r="V9" s="10">
-        <v>0</v>
-      </c>
-      <c r="W9" s="10">
-        <v>0</v>
-      </c>
-      <c r="X9" s="10">
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>100.0544</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>100.0544</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>30.783999999999999</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>12.8683</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>0.14929999999999999</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>0.19089999999999999</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>4.1214000000000004</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>51.915599999999998</v>
       </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <v>2.75E-2</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="9">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="9">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>0.1157</v>
       </c>
-      <c r="V10" s="10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="10">
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>99.8369</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>99.8369</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>31.099399999999999</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>13.1629</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>0.15840000000000001</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>0.1779</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>3.8509000000000002</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>51.354799999999997</v>
       </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="9">
         <v>1.52E-2</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="9">
         <v>0.1153</v>
       </c>
-      <c r="V11" s="10">
-        <v>0</v>
-      </c>
-      <c r="W11" s="10">
-        <v>0</v>
-      </c>
-      <c r="X11" s="10">
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>99.981200000000001</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>99.981200000000001</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>31.043199999999999</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>13.214</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>0.15970000000000001</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>0.16389999999999999</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>3.9133</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>51.453800000000001</v>
       </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="9">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="9">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="9">
         <v>0.1152</v>
       </c>
-      <c r="V12" s="10">
-        <v>0</v>
-      </c>
-      <c r="W12" s="10">
-        <v>0</v>
-      </c>
-      <c r="X12" s="10">
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>99.773499999999999</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>99.773499999999999</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>31.012799999999999</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>13.145</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>0.16639999999999999</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>0.18049999999999999</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>3.8702000000000001</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>51.370699999999999</v>
       </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <v>2.76E-2</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="9">
         <v>1.52E-2</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="9">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="9">
         <v>0.1153</v>
       </c>
-      <c r="V13" s="10">
-        <v>0</v>
-      </c>
-      <c r="W13" s="10">
-        <v>0</v>
-      </c>
-      <c r="X13" s="10">
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>100.029</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>100.029</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>31.062799999999999</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>13.289199999999999</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>0.17910000000000001</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>0.17630000000000001</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>3.8982999999999999</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>51.405299999999997</v>
       </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="9">
         <v>1.52E-2</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="9">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="9">
         <v>0.1152</v>
       </c>
-      <c r="V14" s="10">
-        <v>0</v>
-      </c>
-      <c r="W14" s="10">
-        <v>0</v>
-      </c>
-      <c r="X14" s="10">
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>99.940299999999993</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>99.940299999999993</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>31.0444</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>13.379799999999999</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>0.18920000000000001</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>0.16700000000000001</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>2.35E-2</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>3.8692000000000002</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>51.267099999999999</v>
       </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="9">
         <v>1.52E-2</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="9">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="9">
         <v>0.1152</v>
       </c>
-      <c r="V15" s="10">
-        <v>0</v>
-      </c>
-      <c r="W15" s="10">
-        <v>0</v>
-      </c>
-      <c r="X15" s="10">
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>100.00320000000001</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>100.00320000000001</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>31.102799999999998</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>13.289</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>0.1971</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>0.17879999999999999</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>1.95E-2</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>3.8919999999999999</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>51.323999999999998</v>
       </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="9">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="9">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="9">
         <v>1.52E-2</v>
       </c>
-      <c r="S16" s="10">
+      <c r="S16" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16" s="9">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="U16" s="10">
+      <c r="U16" s="9">
         <v>0.1152</v>
       </c>
-      <c r="V16" s="10">
-        <v>0</v>
-      </c>
-      <c r="W16" s="10">
-        <v>0</v>
-      </c>
-      <c r="X16" s="10">
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>99.886499999999998</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>99.886499999999998</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>30.880099999999999</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>13.110300000000001</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>0.2452</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>0.18079999999999999</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>3.9548000000000001</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>51.488</v>
       </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="9">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="9">
         <v>1.52E-2</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="9">
         <v>3.95E-2</v>
       </c>
-      <c r="U17" s="10">
+      <c r="U17" s="9">
         <v>0.1153</v>
       </c>
-      <c r="V17" s="10">
-        <v>0</v>
-      </c>
-      <c r="W17" s="10">
-        <v>0</v>
-      </c>
-      <c r="X17" s="10">
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>100.04040000000001</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>100.04040000000001</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>31.014800000000001</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>13.060499999999999</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>0.2359</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>3.9817999999999998</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>51.545000000000002</v>
       </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="9">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="9">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="9">
         <v>1.52E-2</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="9">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="9">
         <v>0.11559999999999999</v>
       </c>
-      <c r="V18" s="10">
-        <v>0</v>
-      </c>
-      <c r="W18" s="10">
-        <v>0</v>
-      </c>
-      <c r="X18" s="10">
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>100.012</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>100.012</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>30.901299999999999</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>13.1106</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>0.25159999999999999</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>0.17219999999999999</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>2.58E-2</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>3.9813000000000001</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>51.569099999999999</v>
       </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="9">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="9">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="9">
         <v>3.95E-2</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="9">
         <v>0.11550000000000001</v>
       </c>
-      <c r="V19" s="10">
-        <v>0</v>
-      </c>
-      <c r="W19" s="10">
-        <v>0</v>
-      </c>
-      <c r="X19" s="10">
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>99.849800000000002</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>99.849800000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>31.513200000000001</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>13.785500000000001</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>0.16589999999999999</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>0.1069</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>3.5516999999999999</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>50.690800000000003</v>
       </c>
-      <c r="L20" s="10">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="9">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="9">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="9">
         <v>0.1143</v>
       </c>
-      <c r="V20" s="10">
-        <v>0</v>
-      </c>
-      <c r="W20" s="10">
-        <v>0</v>
-      </c>
-      <c r="X20" s="10">
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>99.662099999999995</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>99.662099999999995</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>31.4724</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>13.6967</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>0.16120000000000001</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>0.111</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>3.5705</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>50.616399999999999</v>
       </c>
-      <c r="L21" s="10">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="10">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="9">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="9">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="9">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="U21" s="10">
+      <c r="U21" s="9">
         <v>0.1142</v>
       </c>
-      <c r="V21" s="10">
-        <v>0</v>
-      </c>
-      <c r="W21" s="10">
-        <v>0</v>
-      </c>
-      <c r="X21" s="10">
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>99.6995</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>99.6995</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>31.550799999999999</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>13.69</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>0.17680000000000001</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>0.10730000000000001</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>3.5499000000000001</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>50.5822</v>
       </c>
-      <c r="L22" s="10">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10">
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="9">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="9">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="U22" s="10">
+      <c r="U22" s="9">
         <v>0.1142</v>
       </c>
-      <c r="V22" s="10">
-        <v>0</v>
-      </c>
-      <c r="W22" s="10">
-        <v>0</v>
-      </c>
-      <c r="X22" s="10">
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>99.611400000000003</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>99.611400000000003</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>31.316600000000001</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>13.5929</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>0.1739</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>0.11219999999999999</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>3.5899000000000001</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>50.782899999999998</v>
       </c>
-      <c r="L23" s="10">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10">
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="9">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="9">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="9">
         <v>0.1142</v>
       </c>
-      <c r="V23" s="10">
-        <v>0</v>
-      </c>
-      <c r="W23" s="10">
-        <v>0</v>
-      </c>
-      <c r="X23" s="10">
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>99.633600000000001</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>99.633600000000001</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>31.350300000000001</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>13.6523</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>0.10489999999999999</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>0.10929999999999999</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>3.7050999999999998</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>50.679299999999998</v>
       </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="10">
-        <v>0</v>
-      </c>
-      <c r="O24" s="10">
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="9">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="9">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="S24" s="10">
+      <c r="S24" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="9">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="U24" s="10">
+      <c r="U24" s="9">
         <v>0.1143</v>
       </c>
-      <c r="V24" s="10">
-        <v>0</v>
-      </c>
-      <c r="W24" s="10">
-        <v>0</v>
-      </c>
-      <c r="X24" s="10">
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>99.611999999999995</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>99.611999999999995</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>31.378499999999999</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>13.556699999999999</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>0.1673</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>0.1085</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>3.6617000000000002</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>50.702199999999998</v>
       </c>
-      <c r="L25" s="10">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="10">
-        <v>0</v>
-      </c>
-      <c r="O25" s="10">
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="9">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="9">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="9">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U25" s="9">
         <v>0.1145</v>
       </c>
-      <c r="V25" s="10">
-        <v>0</v>
-      </c>
-      <c r="W25" s="10">
-        <v>0</v>
-      </c>
-      <c r="X25" s="10">
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>99.869799999999998</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>99.869900000000001</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>31.895700000000001</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>14.092000000000001</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>0.19389999999999999</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>4.36E-2</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>3.3637000000000001</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>50.1877</v>
       </c>
-      <c r="L26" s="10">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
         <v>0.08</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="9">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="9">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="9">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T26" s="9">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="U26" s="10">
+      <c r="U26" s="9">
         <v>0.114</v>
       </c>
-      <c r="V26" s="10">
-        <v>0</v>
-      </c>
-      <c r="W26" s="10">
-        <v>0</v>
-      </c>
-      <c r="X26" s="10">
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>99.918000000000006</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>99.918000000000006</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>31.860800000000001</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>14.0146</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>0.18110000000000001</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>3.3992</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>50.3294</v>
       </c>
-      <c r="L27" s="10">
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="10">
-        <v>0</v>
-      </c>
-      <c r="O27" s="10">
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="9">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="9">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T27" s="10">
+      <c r="T27" s="9">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="U27" s="10">
+      <c r="U27" s="9">
         <v>0.114</v>
       </c>
-      <c r="V27" s="10">
-        <v>0</v>
-      </c>
-      <c r="W27" s="10">
-        <v>0</v>
-      </c>
-      <c r="X27" s="10">
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>100.11669999999999</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>100.11669999999999</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>31.965699999999998</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>14.131</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>0.19789999999999999</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>0.1019</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>3.363</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>50.321800000000003</v>
       </c>
-      <c r="L28" s="10">
-        <v>0</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="10">
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
         <v>0.08</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="9">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="9">
         <v>2.75E-2</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="9">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="S28" s="10">
+      <c r="S28" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T28" s="10">
+      <c r="T28" s="9">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="U28" s="10">
+      <c r="U28" s="9">
         <v>0.11409999999999999</v>
       </c>
-      <c r="V28" s="10">
-        <v>0</v>
-      </c>
-      <c r="W28" s="10">
-        <v>0</v>
-      </c>
-      <c r="X28" s="10">
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>99.298100000000005</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>99.298100000000005</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>32.653799999999997</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>15.1974</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>0.2069</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>2.6880000000000002</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>48.451099999999997</v>
       </c>
-      <c r="L29" s="10">
-        <v>0</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0</v>
-      </c>
-      <c r="O29" s="10">
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="9">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="9">
         <v>2.76E-2</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S29" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T29" s="10">
+      <c r="T29" s="9">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="U29" s="10">
+      <c r="U29" s="9">
         <v>0.1124</v>
       </c>
-      <c r="V29" s="10">
-        <v>0</v>
-      </c>
-      <c r="W29" s="10">
-        <v>0</v>
-      </c>
-      <c r="X29" s="10">
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+      <c r="W29" s="9">
+        <v>0</v>
+      </c>
+      <c r="X29" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>99.278700000000001</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>99.278700000000001</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>32.694400000000002</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>15.1729</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>0.18160000000000001</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>2.7111000000000001</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>48.423999999999999</v>
       </c>
-      <c r="L30" s="10">
-        <v>0</v>
-      </c>
-      <c r="M30" s="10">
-        <v>0</v>
-      </c>
-      <c r="N30" s="10">
-        <v>0</v>
-      </c>
-      <c r="O30" s="10">
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="9">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S30" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30" s="9">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="U30" s="10">
+      <c r="U30" s="9">
         <v>0.1125</v>
       </c>
-      <c r="V30" s="10">
-        <v>0</v>
-      </c>
-      <c r="W30" s="10">
-        <v>0</v>
-      </c>
-      <c r="X30" s="10">
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
+      <c r="W30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>99.146900000000002</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>99.146900000000002</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>32.668700000000001</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>15.1814</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>2.7048000000000001</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>48.358899999999998</v>
       </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0</v>
-      </c>
-      <c r="N31" s="10">
-        <v>0</v>
-      </c>
-      <c r="O31" s="10">
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="9">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="9">
         <v>2.75E-2</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T31" s="9">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="U31" s="10">
+      <c r="U31" s="9">
         <v>0.1123</v>
       </c>
-      <c r="V31" s="10">
-        <v>0</v>
-      </c>
-      <c r="W31" s="10">
-        <v>0</v>
-      </c>
-      <c r="X31" s="10">
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0</v>
+      </c>
+      <c r="X31" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>98.974199999999996</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>98.974199999999996</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>32.781799999999997</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>15.4344</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>0.17019999999999999</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>2.5659000000000001</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>47.917900000000003</v>
       </c>
-      <c r="L32" s="10">
-        <v>0</v>
-      </c>
-      <c r="M32" s="10">
-        <v>0</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
-      <c r="O32" s="10">
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="9">
         <v>5.21E-2</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S32" s="10">
+      <c r="S32" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T32" s="10">
+      <c r="T32" s="9">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="U32" s="10">
+      <c r="U32" s="9">
         <v>0.112</v>
       </c>
-      <c r="V32" s="10">
-        <v>0</v>
-      </c>
-      <c r="W32" s="10">
-        <v>0</v>
-      </c>
-      <c r="X32" s="10">
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9">
+        <v>0</v>
+      </c>
+      <c r="X32" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>98.988600000000005</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>98.988600000000005</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>32.743899999999996</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>15.385300000000001</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>0.19500000000000001</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>2.5497999999999998</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>48.011299999999999</v>
       </c>
-      <c r="L33" s="10">
-        <v>0</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0</v>
-      </c>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
-      <c r="O33" s="10">
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="9">
         <v>5.21E-2</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T33" s="9">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="U33" s="10">
+      <c r="U33" s="9">
         <v>0.112</v>
       </c>
-      <c r="V33" s="10">
-        <v>0</v>
-      </c>
-      <c r="W33" s="10">
-        <v>0</v>
-      </c>
-      <c r="X33" s="10">
+      <c r="V33" s="9">
+        <v>0</v>
+      </c>
+      <c r="W33" s="9">
+        <v>0</v>
+      </c>
+      <c r="X33" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>99.125399999999999</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>99.125399999999999</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>32.804099999999998</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>15.342000000000001</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>0.19639999999999999</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>2.5806</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>48.105600000000003</v>
       </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
-      <c r="O34" s="10">
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="9">
         <v>5.21E-2</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <v>2.75E-2</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T34" s="10">
+      <c r="T34" s="9">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="U34" s="10">
+      <c r="U34" s="9">
         <v>0.112</v>
       </c>
-      <c r="V34" s="10">
-        <v>0</v>
-      </c>
-      <c r="W34" s="10">
-        <v>0</v>
-      </c>
-      <c r="X34" s="10">
+      <c r="V34" s="9">
+        <v>0</v>
+      </c>
+      <c r="W34" s="9">
+        <v>0</v>
+      </c>
+      <c r="X34" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>99.200100000000006</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>99.200100000000006</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>32.6419</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>15.145799999999999</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>0.21390000000000001</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>2.7124999999999999</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>48.377400000000002</v>
       </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
-      <c r="O35" s="10">
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="9">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="9">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T35" s="10">
+      <c r="T35" s="9">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="U35" s="10">
+      <c r="U35" s="9">
         <v>0.1124</v>
       </c>
-      <c r="V35" s="10">
-        <v>0</v>
-      </c>
-      <c r="W35" s="10">
-        <v>0</v>
-      </c>
-      <c r="X35" s="10">
+      <c r="V35" s="9">
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <v>0</v>
+      </c>
+      <c r="X35" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>99.037999999999997</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>99.037999999999997</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>32.637599999999999</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>15.0869</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>0.1535</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>2.7101000000000002</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>48.350999999999999</v>
       </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0</v>
-      </c>
-      <c r="N36" s="10">
-        <v>0</v>
-      </c>
-      <c r="O36" s="10">
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="9">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="9">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="R36" s="10">
+      <c r="R36" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S36" s="10">
+      <c r="S36" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="T36" s="10">
+      <c r="T36" s="9">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="U36" s="10">
+      <c r="U36" s="9">
         <v>0.1123</v>
       </c>
-      <c r="V36" s="10">
-        <v>0</v>
-      </c>
-      <c r="W36" s="10">
-        <v>0</v>
-      </c>
-      <c r="X36" s="10">
+      <c r="V36" s="9">
+        <v>0</v>
+      </c>
+      <c r="W36" s="9">
+        <v>0</v>
+      </c>
+      <c r="X36" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>99.000500000000002</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>99.000500000000002</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>32.6708</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>15.2011</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>0.1797</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>6.9099999999999995E-2</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>2.6543999999999999</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>48.193199999999997</v>
       </c>
-      <c r="L37" s="10">
-        <v>0</v>
-      </c>
-      <c r="M37" s="10">
-        <v>0</v>
-      </c>
-      <c r="N37" s="10">
-        <v>0</v>
-      </c>
-      <c r="O37" s="10">
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="9">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="9">
         <v>2.76E-2</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S37" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="T37" s="10">
+      <c r="T37" s="9">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="U37" s="10">
+      <c r="U37" s="9">
         <v>0.1123</v>
       </c>
-      <c r="V37" s="10">
-        <v>0</v>
-      </c>
-      <c r="W37" s="10">
-        <v>0</v>
-      </c>
-      <c r="X37" s="10">
+      <c r="V37" s="9">
+        <v>0</v>
+      </c>
+      <c r="W37" s="9">
+        <v>0</v>
+      </c>
+      <c r="X37" s="9">
         <v>0</v>
       </c>
     </row>
